--- a/data/20250207_fluorinated_deg_proteins_table.xlsx
+++ b/data/20250207_fluorinated_deg_proteins_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinsse/Documents/github/PFAS-Biodegradation-Toolkit/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B5E3FF49-DFD5-D241-A450-20C3F93152E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C36AB3E-6B35-4849-8974-D95F9AC82E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="69000" yWindow="-12620" windowWidth="30640" windowHeight="19980" xr2:uid="{AF33053E-0054-ED46-BCFA-9F1912D01474}"/>
+    <workbookView xWindow="7680" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{AF33053E-0054-ED46-BCFA-9F1912D01474}"/>
   </bookViews>
   <sheets>
     <sheet name="20250104_fluorinated_deg_protei" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="365">
   <si>
     <t>prot</t>
   </si>
@@ -1096,30 +1096,9 @@
     <t>x</t>
   </si>
   <si>
-    <t>kingdom</t>
-  </si>
-  <si>
-    <t>phylum</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
     <t>fluoroacetate dehalogenase (EC 3.8.1.3)</t>
   </si>
   <si>
-    <t>order</t>
-  </si>
-  <si>
-    <t>genus</t>
-  </si>
-  <si>
-    <t>species</t>
-  </si>
-  <si>
-    <t>full_organism_name_known</t>
-  </si>
-  <si>
     <t>other_id</t>
   </si>
   <si>
@@ -1150,16 +1129,10 @@
     <t>H6LGM6</t>
   </si>
   <si>
-    <t>family</t>
-  </si>
-  <si>
     <t>C9A4P8</t>
   </si>
   <si>
     <t>uniprot_id</t>
-  </si>
-  <si>
-    <t>still_needed</t>
   </si>
 </sst>
 </file>
@@ -1643,9 +1616,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2021,31 +1993,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{021CB4AB-3F39-AB4C-8BD6-D8576985F167}">
-  <dimension ref="A1:Q79"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N52" sqref="N52"/>
+      <selection activeCell="J1" sqref="J1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.83203125" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>372</v>
-      </c>
-      <c r="B1" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -2062,36 +2033,12 @@
       <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
-        <v>359</v>
-      </c>
-      <c r="K1" t="s">
-        <v>352</v>
-      </c>
-      <c r="L1" t="s">
-        <v>353</v>
-      </c>
-      <c r="M1" t="s">
-        <v>354</v>
-      </c>
-      <c r="N1" t="s">
-        <v>356</v>
-      </c>
-      <c r="O1" t="s">
-        <v>370</v>
-      </c>
-      <c r="P1" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>149</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>148</v>
       </c>
       <c r="C2">
@@ -2115,36 +2062,12 @@
       <c r="I2" t="s">
         <v>138</v>
       </c>
-      <c r="J2" t="s">
-        <v>373</v>
-      </c>
-      <c r="K2" t="s">
-        <v>373</v>
-      </c>
-      <c r="L2" t="s">
-        <v>373</v>
-      </c>
-      <c r="M2" t="s">
-        <v>373</v>
-      </c>
-      <c r="N2" t="s">
-        <v>373</v>
-      </c>
-      <c r="O2" t="s">
-        <v>373</v>
-      </c>
-      <c r="P2" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>363</v>
-      </c>
-      <c r="B3" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B3" t="s">
         <v>271</v>
       </c>
       <c r="C3">
@@ -2168,43 +2091,19 @@
       <c r="I3" t="s">
         <v>274</v>
       </c>
-      <c r="J3" t="s">
-        <v>373</v>
-      </c>
-      <c r="K3" t="s">
-        <v>373</v>
-      </c>
-      <c r="L3" t="s">
-        <v>373</v>
-      </c>
-      <c r="M3" t="s">
-        <v>373</v>
-      </c>
-      <c r="N3" t="s">
-        <v>373</v>
-      </c>
-      <c r="O3" t="s">
-        <v>373</v>
-      </c>
-      <c r="P3" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>361</v>
-      </c>
-      <c r="B4" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B4" t="s">
         <v>350</v>
       </c>
       <c r="C4">
         <v>128</v>
       </c>
       <c r="D4" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="E4" t="s">
         <v>342</v>
@@ -2221,36 +2120,12 @@
       <c r="I4" t="s">
         <v>349</v>
       </c>
-      <c r="J4" t="s">
-        <v>373</v>
-      </c>
-      <c r="K4" t="s">
-        <v>373</v>
-      </c>
-      <c r="L4" t="s">
-        <v>373</v>
-      </c>
-      <c r="M4" t="s">
-        <v>373</v>
-      </c>
-      <c r="N4" t="s">
-        <v>373</v>
-      </c>
-      <c r="O4" t="s">
-        <v>373</v>
-      </c>
-      <c r="P4" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>145</v>
       </c>
       <c r="C5">
@@ -2274,36 +2149,12 @@
       <c r="I5" t="s">
         <v>138</v>
       </c>
-      <c r="J5" t="s">
-        <v>373</v>
-      </c>
-      <c r="K5" t="s">
-        <v>373</v>
-      </c>
-      <c r="L5" t="s">
-        <v>373</v>
-      </c>
-      <c r="M5" t="s">
-        <v>373</v>
-      </c>
-      <c r="N5" t="s">
-        <v>373</v>
-      </c>
-      <c r="O5" t="s">
-        <v>373</v>
-      </c>
-      <c r="P5" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>371</v>
-      </c>
-      <c r="B6" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B6" t="s">
         <v>346</v>
       </c>
       <c r="C6">
@@ -2327,36 +2178,12 @@
       <c r="I6" t="s">
         <v>345</v>
       </c>
-      <c r="J6" t="s">
-        <v>373</v>
-      </c>
-      <c r="K6" t="s">
-        <v>373</v>
-      </c>
-      <c r="L6" t="s">
-        <v>373</v>
-      </c>
-      <c r="M6" t="s">
-        <v>373</v>
-      </c>
-      <c r="N6" t="s">
-        <v>373</v>
-      </c>
-      <c r="O6" t="s">
-        <v>373</v>
-      </c>
-      <c r="P6" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>367</v>
-      </c>
-      <c r="B7" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B7" t="s">
         <v>90</v>
       </c>
       <c r="C7">
@@ -2380,36 +2207,12 @@
       <c r="I7" t="s">
         <v>87</v>
       </c>
-      <c r="J7" t="s">
-        <v>373</v>
-      </c>
-      <c r="K7" t="s">
-        <v>373</v>
-      </c>
-      <c r="L7" t="s">
-        <v>373</v>
-      </c>
-      <c r="M7" t="s">
-        <v>373</v>
-      </c>
-      <c r="N7" t="s">
-        <v>373</v>
-      </c>
-      <c r="O7" t="s">
-        <v>373</v>
-      </c>
-      <c r="P7" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>368</v>
-      </c>
-      <c r="B8" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B8" t="s">
         <v>88</v>
       </c>
       <c r="C8">
@@ -2433,36 +2236,12 @@
       <c r="I8" t="s">
         <v>87</v>
       </c>
-      <c r="J8" t="s">
-        <v>373</v>
-      </c>
-      <c r="K8" t="s">
-        <v>373</v>
-      </c>
-      <c r="L8" t="s">
-        <v>373</v>
-      </c>
-      <c r="M8" t="s">
-        <v>373</v>
-      </c>
-      <c r="N8" t="s">
-        <v>373</v>
-      </c>
-      <c r="O8" t="s">
-        <v>373</v>
-      </c>
-      <c r="P8" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>369</v>
-      </c>
-      <c r="B9" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B9" t="s">
         <v>83</v>
       </c>
       <c r="C9">
@@ -2486,36 +2265,12 @@
       <c r="I9" t="s">
         <v>87</v>
       </c>
-      <c r="J9" t="s">
-        <v>373</v>
-      </c>
-      <c r="K9" t="s">
-        <v>373</v>
-      </c>
-      <c r="L9" t="s">
-        <v>373</v>
-      </c>
-      <c r="M9" t="s">
-        <v>373</v>
-      </c>
-      <c r="N9" t="s">
-        <v>373</v>
-      </c>
-      <c r="O9" t="s">
-        <v>373</v>
-      </c>
-      <c r="P9" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>76</v>
       </c>
       <c r="C10">
@@ -2539,36 +2294,12 @@
       <c r="I10" t="s">
         <v>82</v>
       </c>
-      <c r="J10" t="s">
-        <v>373</v>
-      </c>
-      <c r="K10" t="s">
-        <v>373</v>
-      </c>
-      <c r="L10" t="s">
-        <v>373</v>
-      </c>
-      <c r="M10" t="s">
-        <v>373</v>
-      </c>
-      <c r="N10" t="s">
-        <v>373</v>
-      </c>
-      <c r="O10" t="s">
-        <v>373</v>
-      </c>
-      <c r="P10" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>266</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>265</v>
       </c>
       <c r="C11">
@@ -2592,36 +2323,12 @@
       <c r="I11" t="s">
         <v>270</v>
       </c>
-      <c r="J11" t="s">
-        <v>373</v>
-      </c>
-      <c r="K11" t="s">
-        <v>373</v>
-      </c>
-      <c r="L11" t="s">
-        <v>373</v>
-      </c>
-      <c r="M11" t="s">
-        <v>373</v>
-      </c>
-      <c r="N11" t="s">
-        <v>373</v>
-      </c>
-      <c r="O11" t="s">
-        <v>373</v>
-      </c>
-      <c r="P11" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>261</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>260</v>
       </c>
       <c r="C12">
@@ -2645,36 +2352,12 @@
       <c r="I12" t="s">
         <v>264</v>
       </c>
-      <c r="J12" t="s">
-        <v>373</v>
-      </c>
-      <c r="K12" t="s">
-        <v>373</v>
-      </c>
-      <c r="L12" t="s">
-        <v>373</v>
-      </c>
-      <c r="M12" t="s">
-        <v>373</v>
-      </c>
-      <c r="N12" t="s">
-        <v>373</v>
-      </c>
-      <c r="O12" t="s">
-        <v>373</v>
-      </c>
-      <c r="P12" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>314</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>313</v>
       </c>
       <c r="C13">
@@ -2698,36 +2381,12 @@
       <c r="I13" t="s">
         <v>318</v>
       </c>
-      <c r="J13" t="s">
-        <v>373</v>
-      </c>
-      <c r="K13" t="s">
-        <v>373</v>
-      </c>
-      <c r="L13" t="s">
-        <v>373</v>
-      </c>
-      <c r="M13" t="s">
-        <v>373</v>
-      </c>
-      <c r="N13" t="s">
-        <v>373</v>
-      </c>
-      <c r="O13" t="s">
-        <v>373</v>
-      </c>
-      <c r="P13" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>255</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>254</v>
       </c>
       <c r="C14">
@@ -2751,36 +2410,12 @@
       <c r="I14" t="s">
         <v>259</v>
       </c>
-      <c r="J14" t="s">
-        <v>373</v>
-      </c>
-      <c r="K14" t="s">
-        <v>373</v>
-      </c>
-      <c r="L14" t="s">
-        <v>373</v>
-      </c>
-      <c r="M14" t="s">
-        <v>373</v>
-      </c>
-      <c r="N14" t="s">
-        <v>373</v>
-      </c>
-      <c r="O14" t="s">
-        <v>373</v>
-      </c>
-      <c r="P14" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>366</v>
-      </c>
-      <c r="B15" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B15" t="s">
         <v>71</v>
       </c>
       <c r="C15">
@@ -2804,36 +2439,12 @@
       <c r="I15" t="s">
         <v>75</v>
       </c>
-      <c r="J15" t="s">
-        <v>373</v>
-      </c>
-      <c r="K15" t="s">
-        <v>373</v>
-      </c>
-      <c r="L15" t="s">
-        <v>373</v>
-      </c>
-      <c r="M15" t="s">
-        <v>373</v>
-      </c>
-      <c r="N15" t="s">
-        <v>373</v>
-      </c>
-      <c r="O15" t="s">
-        <v>373</v>
-      </c>
-      <c r="P15" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>140</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>139</v>
       </c>
       <c r="C16">
@@ -2857,36 +2468,12 @@
       <c r="I16" t="s">
         <v>144</v>
       </c>
-      <c r="J16" t="s">
-        <v>373</v>
-      </c>
-      <c r="K16" t="s">
-        <v>373</v>
-      </c>
-      <c r="L16" t="s">
-        <v>373</v>
-      </c>
-      <c r="M16" t="s">
-        <v>373</v>
-      </c>
-      <c r="N16" t="s">
-        <v>373</v>
-      </c>
-      <c r="O16" t="s">
-        <v>373</v>
-      </c>
-      <c r="P16" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>249</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>248</v>
       </c>
       <c r="C17">
@@ -2910,36 +2497,12 @@
       <c r="I17" t="s">
         <v>253</v>
       </c>
-      <c r="J17" t="s">
-        <v>373</v>
-      </c>
-      <c r="K17" t="s">
-        <v>373</v>
-      </c>
-      <c r="L17" t="s">
-        <v>373</v>
-      </c>
-      <c r="M17" t="s">
-        <v>373</v>
-      </c>
-      <c r="N17" t="s">
-        <v>373</v>
-      </c>
-      <c r="O17" t="s">
-        <v>373</v>
-      </c>
-      <c r="P17" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>134</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>133</v>
       </c>
       <c r="C18">
@@ -2963,36 +2526,12 @@
       <c r="I18" t="s">
         <v>138</v>
       </c>
-      <c r="J18" t="s">
-        <v>373</v>
-      </c>
-      <c r="K18" t="s">
-        <v>373</v>
-      </c>
-      <c r="L18" t="s">
-        <v>373</v>
-      </c>
-      <c r="M18" t="s">
-        <v>373</v>
-      </c>
-      <c r="N18" t="s">
-        <v>373</v>
-      </c>
-      <c r="O18" t="s">
-        <v>373</v>
-      </c>
-      <c r="P18" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>68</v>
       </c>
       <c r="C19">
@@ -3016,36 +2555,12 @@
       <c r="I19" t="s">
         <v>61</v>
       </c>
-      <c r="J19" t="s">
-        <v>373</v>
-      </c>
-      <c r="K19" t="s">
-        <v>373</v>
-      </c>
-      <c r="L19" t="s">
-        <v>373</v>
-      </c>
-      <c r="M19" t="s">
-        <v>373</v>
-      </c>
-      <c r="N19" t="s">
-        <v>373</v>
-      </c>
-      <c r="O19" t="s">
-        <v>373</v>
-      </c>
-      <c r="P19" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>65</v>
       </c>
       <c r="C20">
@@ -3069,36 +2584,12 @@
       <c r="I20" t="s">
         <v>61</v>
       </c>
-      <c r="J20" t="s">
-        <v>373</v>
-      </c>
-      <c r="K20" t="s">
-        <v>373</v>
-      </c>
-      <c r="L20" t="s">
-        <v>373</v>
-      </c>
-      <c r="M20" t="s">
-        <v>373</v>
-      </c>
-      <c r="N20" t="s">
-        <v>373</v>
-      </c>
-      <c r="O20" t="s">
-        <v>373</v>
-      </c>
-      <c r="P20" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>62</v>
       </c>
       <c r="C21">
@@ -3122,36 +2613,12 @@
       <c r="I21" t="s">
         <v>61</v>
       </c>
-      <c r="J21" t="s">
-        <v>373</v>
-      </c>
-      <c r="K21" t="s">
-        <v>373</v>
-      </c>
-      <c r="L21" t="s">
-        <v>373</v>
-      </c>
-      <c r="M21" t="s">
-        <v>373</v>
-      </c>
-      <c r="N21" t="s">
-        <v>373</v>
-      </c>
-      <c r="O21" t="s">
-        <v>373</v>
-      </c>
-      <c r="P21" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>56</v>
       </c>
       <c r="C22">
@@ -3175,36 +2642,12 @@
       <c r="I22" t="s">
         <v>61</v>
       </c>
-      <c r="J22" t="s">
-        <v>373</v>
-      </c>
-      <c r="K22" t="s">
-        <v>373</v>
-      </c>
-      <c r="L22" t="s">
-        <v>373</v>
-      </c>
-      <c r="M22" t="s">
-        <v>373</v>
-      </c>
-      <c r="N22" t="s">
-        <v>373</v>
-      </c>
-      <c r="O22" t="s">
-        <v>373</v>
-      </c>
-      <c r="P22" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>243</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>242</v>
       </c>
       <c r="C23">
@@ -3228,36 +2671,12 @@
       <c r="I23" t="s">
         <v>247</v>
       </c>
-      <c r="J23" t="s">
-        <v>373</v>
-      </c>
-      <c r="K23" t="s">
-        <v>373</v>
-      </c>
-      <c r="L23" t="s">
-        <v>373</v>
-      </c>
-      <c r="M23" t="s">
-        <v>373</v>
-      </c>
-      <c r="N23" t="s">
-        <v>373</v>
-      </c>
-      <c r="O23" t="s">
-        <v>373</v>
-      </c>
-      <c r="P23" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>329</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>328</v>
       </c>
       <c r="C24">
@@ -3281,36 +2700,12 @@
       <c r="I24" t="s">
         <v>324</v>
       </c>
-      <c r="J24" t="s">
-        <v>373</v>
-      </c>
-      <c r="K24" t="s">
-        <v>373</v>
-      </c>
-      <c r="L24" t="s">
-        <v>373</v>
-      </c>
-      <c r="M24" t="s">
-        <v>373</v>
-      </c>
-      <c r="N24" t="s">
-        <v>373</v>
-      </c>
-      <c r="O24" t="s">
-        <v>373</v>
-      </c>
-      <c r="P24" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>326</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>325</v>
       </c>
       <c r="C25">
@@ -3334,36 +2729,12 @@
       <c r="I25" t="s">
         <v>324</v>
       </c>
-      <c r="J25" t="s">
-        <v>373</v>
-      </c>
-      <c r="K25" t="s">
-        <v>373</v>
-      </c>
-      <c r="L25" t="s">
-        <v>373</v>
-      </c>
-      <c r="M25" t="s">
-        <v>373</v>
-      </c>
-      <c r="N25" t="s">
-        <v>373</v>
-      </c>
-      <c r="O25" t="s">
-        <v>373</v>
-      </c>
-      <c r="P25" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>320</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>319</v>
       </c>
       <c r="C26">
@@ -3387,36 +2758,12 @@
       <c r="I26" t="s">
         <v>324</v>
       </c>
-      <c r="J26" t="s">
-        <v>373</v>
-      </c>
-      <c r="K26" t="s">
-        <v>373</v>
-      </c>
-      <c r="L26" t="s">
-        <v>373</v>
-      </c>
-      <c r="M26" t="s">
-        <v>373</v>
-      </c>
-      <c r="N26" t="s">
-        <v>373</v>
-      </c>
-      <c r="O26" t="s">
-        <v>373</v>
-      </c>
-      <c r="P26" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>53</v>
       </c>
       <c r="C27">
@@ -3440,36 +2787,12 @@
       <c r="I27" t="s">
         <v>52</v>
       </c>
-      <c r="J27" t="s">
-        <v>373</v>
-      </c>
-      <c r="K27" t="s">
-        <v>373</v>
-      </c>
-      <c r="L27" t="s">
-        <v>373</v>
-      </c>
-      <c r="M27" t="s">
-        <v>373</v>
-      </c>
-      <c r="N27" t="s">
-        <v>373</v>
-      </c>
-      <c r="O27" t="s">
-        <v>373</v>
-      </c>
-      <c r="P27" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>47</v>
       </c>
       <c r="C28">
@@ -3493,36 +2816,12 @@
       <c r="I28" t="s">
         <v>52</v>
       </c>
-      <c r="J28" t="s">
-        <v>373</v>
-      </c>
-      <c r="K28" t="s">
-        <v>373</v>
-      </c>
-      <c r="L28" t="s">
-        <v>373</v>
-      </c>
-      <c r="M28" t="s">
-        <v>373</v>
-      </c>
-      <c r="N28" t="s">
-        <v>373</v>
-      </c>
-      <c r="O28" t="s">
-        <v>373</v>
-      </c>
-      <c r="P28" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>129</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>128</v>
       </c>
       <c r="C29">
@@ -3546,36 +2845,12 @@
       <c r="I29" t="s">
         <v>132</v>
       </c>
-      <c r="J29" t="s">
-        <v>373</v>
-      </c>
-      <c r="K29" t="s">
-        <v>373</v>
-      </c>
-      <c r="L29" t="s">
-        <v>373</v>
-      </c>
-      <c r="M29" t="s">
-        <v>373</v>
-      </c>
-      <c r="N29" t="s">
-        <v>373</v>
-      </c>
-      <c r="O29" t="s">
-        <v>373</v>
-      </c>
-      <c r="P29" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>237</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>236</v>
       </c>
       <c r="C30">
@@ -3599,36 +2874,12 @@
       <c r="I30" t="s">
         <v>241</v>
       </c>
-      <c r="J30" t="s">
-        <v>373</v>
-      </c>
-      <c r="K30" t="s">
-        <v>373</v>
-      </c>
-      <c r="L30" t="s">
-        <v>373</v>
-      </c>
-      <c r="M30" t="s">
-        <v>373</v>
-      </c>
-      <c r="N30" t="s">
-        <v>373</v>
-      </c>
-      <c r="O30" t="s">
-        <v>373</v>
-      </c>
-      <c r="P30" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>41</v>
       </c>
       <c r="C31">
@@ -3652,36 +2903,12 @@
       <c r="I31" t="s">
         <v>46</v>
       </c>
-      <c r="J31" t="s">
-        <v>373</v>
-      </c>
-      <c r="K31" t="s">
-        <v>373</v>
-      </c>
-      <c r="L31" t="s">
-        <v>373</v>
-      </c>
-      <c r="M31" t="s">
-        <v>373</v>
-      </c>
-      <c r="N31" t="s">
-        <v>373</v>
-      </c>
-      <c r="O31" t="s">
-        <v>373</v>
-      </c>
-      <c r="P31" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
         <v>34</v>
       </c>
       <c r="C32">
@@ -3705,36 +2932,12 @@
       <c r="I32" t="s">
         <v>40</v>
       </c>
-      <c r="J32" t="s">
-        <v>373</v>
-      </c>
-      <c r="K32" t="s">
-        <v>373</v>
-      </c>
-      <c r="L32" t="s">
-        <v>373</v>
-      </c>
-      <c r="M32" t="s">
-        <v>373</v>
-      </c>
-      <c r="N32" t="s">
-        <v>373</v>
-      </c>
-      <c r="O32" t="s">
-        <v>373</v>
-      </c>
-      <c r="P32" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>308</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" t="s">
         <v>307</v>
       </c>
       <c r="C33">
@@ -3758,36 +2961,12 @@
       <c r="I33" t="s">
         <v>312</v>
       </c>
-      <c r="J33" t="s">
-        <v>373</v>
-      </c>
-      <c r="K33" t="s">
-        <v>373</v>
-      </c>
-      <c r="L33" t="s">
-        <v>373</v>
-      </c>
-      <c r="M33" t="s">
-        <v>373</v>
-      </c>
-      <c r="N33" t="s">
-        <v>373</v>
-      </c>
-      <c r="O33" t="s">
-        <v>373</v>
-      </c>
-      <c r="P33" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>233</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" t="s">
         <v>232</v>
       </c>
       <c r="C34">
@@ -3811,36 +2990,12 @@
       <c r="I34" t="s">
         <v>235</v>
       </c>
-      <c r="J34" t="s">
-        <v>373</v>
-      </c>
-      <c r="K34" t="s">
-        <v>373</v>
-      </c>
-      <c r="L34" t="s">
-        <v>373</v>
-      </c>
-      <c r="M34" t="s">
-        <v>373</v>
-      </c>
-      <c r="N34" t="s">
-        <v>373</v>
-      </c>
-      <c r="O34" t="s">
-        <v>373</v>
-      </c>
-      <c r="P34" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>227</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" t="s">
         <v>226</v>
       </c>
       <c r="C35">
@@ -3864,36 +3019,12 @@
       <c r="I35" t="s">
         <v>231</v>
       </c>
-      <c r="J35" t="s">
-        <v>373</v>
-      </c>
-      <c r="K35" t="s">
-        <v>373</v>
-      </c>
-      <c r="L35" t="s">
-        <v>373</v>
-      </c>
-      <c r="M35" t="s">
-        <v>373</v>
-      </c>
-      <c r="N35" t="s">
-        <v>373</v>
-      </c>
-      <c r="O35" t="s">
-        <v>373</v>
-      </c>
-      <c r="P35" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>221</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" t="s">
         <v>220</v>
       </c>
       <c r="C36">
@@ -3917,36 +3048,12 @@
       <c r="I36" t="s">
         <v>225</v>
       </c>
-      <c r="J36" t="s">
-        <v>373</v>
-      </c>
-      <c r="K36" t="s">
-        <v>373</v>
-      </c>
-      <c r="L36" t="s">
-        <v>373</v>
-      </c>
-      <c r="M36" t="s">
-        <v>373</v>
-      </c>
-      <c r="N36" t="s">
-        <v>373</v>
-      </c>
-      <c r="O36" t="s">
-        <v>373</v>
-      </c>
-      <c r="P36" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>122</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" t="s">
         <v>121</v>
       </c>
       <c r="C37">
@@ -3970,36 +3077,12 @@
       <c r="I37" t="s">
         <v>127</v>
       </c>
-      <c r="J37" t="s">
-        <v>373</v>
-      </c>
-      <c r="K37" t="s">
-        <v>373</v>
-      </c>
-      <c r="L37" t="s">
-        <v>373</v>
-      </c>
-      <c r="M37" t="s">
-        <v>373</v>
-      </c>
-      <c r="N37" t="s">
-        <v>373</v>
-      </c>
-      <c r="O37" t="s">
-        <v>373</v>
-      </c>
-      <c r="P37" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>116</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" t="s">
         <v>115</v>
       </c>
       <c r="C38">
@@ -4023,36 +3106,12 @@
       <c r="I38" t="s">
         <v>120</v>
       </c>
-      <c r="J38" t="s">
-        <v>373</v>
-      </c>
-      <c r="K38" t="s">
-        <v>373</v>
-      </c>
-      <c r="L38" t="s">
-        <v>373</v>
-      </c>
-      <c r="M38" t="s">
-        <v>373</v>
-      </c>
-      <c r="N38" t="s">
-        <v>373</v>
-      </c>
-      <c r="O38" t="s">
-        <v>373</v>
-      </c>
-      <c r="P38" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>215</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" t="s">
         <v>214</v>
       </c>
       <c r="C39">
@@ -4076,36 +3135,12 @@
       <c r="I39" t="s">
         <v>219</v>
       </c>
-      <c r="J39" t="s">
-        <v>373</v>
-      </c>
-      <c r="K39" t="s">
-        <v>373</v>
-      </c>
-      <c r="L39" t="s">
-        <v>373</v>
-      </c>
-      <c r="M39" t="s">
-        <v>373</v>
-      </c>
-      <c r="N39" t="s">
-        <v>373</v>
-      </c>
-      <c r="O39" t="s">
-        <v>373</v>
-      </c>
-      <c r="P39" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>209</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" t="s">
         <v>208</v>
       </c>
       <c r="C40">
@@ -4129,36 +3164,12 @@
       <c r="I40" t="s">
         <v>213</v>
       </c>
-      <c r="J40" t="s">
-        <v>373</v>
-      </c>
-      <c r="K40" t="s">
-        <v>373</v>
-      </c>
-      <c r="L40" t="s">
-        <v>373</v>
-      </c>
-      <c r="M40" t="s">
-        <v>373</v>
-      </c>
-      <c r="N40" t="s">
-        <v>373</v>
-      </c>
-      <c r="O40" t="s">
-        <v>373</v>
-      </c>
-      <c r="P40" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>110</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" t="s">
         <v>109</v>
       </c>
       <c r="C41">
@@ -4182,36 +3193,12 @@
       <c r="I41" t="s">
         <v>114</v>
       </c>
-      <c r="J41" t="s">
-        <v>373</v>
-      </c>
-      <c r="K41" t="s">
-        <v>373</v>
-      </c>
-      <c r="L41" t="s">
-        <v>373</v>
-      </c>
-      <c r="M41" t="s">
-        <v>373</v>
-      </c>
-      <c r="N41" t="s">
-        <v>373</v>
-      </c>
-      <c r="O41" t="s">
-        <v>373</v>
-      </c>
-      <c r="P41" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>203</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" t="s">
         <v>202</v>
       </c>
       <c r="C42">
@@ -4235,36 +3222,12 @@
       <c r="I42" t="s">
         <v>207</v>
       </c>
-      <c r="J42" t="s">
-        <v>373</v>
-      </c>
-      <c r="K42" t="s">
-        <v>373</v>
-      </c>
-      <c r="L42" t="s">
-        <v>373</v>
-      </c>
-      <c r="M42" t="s">
-        <v>373</v>
-      </c>
-      <c r="N42" t="s">
-        <v>373</v>
-      </c>
-      <c r="O42" t="s">
-        <v>373</v>
-      </c>
-      <c r="P42" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>197</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" t="s">
         <v>196</v>
       </c>
       <c r="C43">
@@ -4288,36 +3251,12 @@
       <c r="I43" t="s">
         <v>201</v>
       </c>
-      <c r="J43" t="s">
-        <v>373</v>
-      </c>
-      <c r="K43" t="s">
-        <v>373</v>
-      </c>
-      <c r="L43" t="s">
-        <v>373</v>
-      </c>
-      <c r="M43" t="s">
-        <v>373</v>
-      </c>
-      <c r="N43" t="s">
-        <v>373</v>
-      </c>
-      <c r="O43" t="s">
-        <v>373</v>
-      </c>
-      <c r="P43" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>190</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" t="s">
         <v>189</v>
       </c>
       <c r="C44">
@@ -4341,36 +3280,12 @@
       <c r="I44" t="s">
         <v>195</v>
       </c>
-      <c r="J44" t="s">
-        <v>373</v>
-      </c>
-      <c r="K44" t="s">
-        <v>373</v>
-      </c>
-      <c r="L44" t="s">
-        <v>373</v>
-      </c>
-      <c r="M44" t="s">
-        <v>373</v>
-      </c>
-      <c r="N44" t="s">
-        <v>373</v>
-      </c>
-      <c r="O44" t="s">
-        <v>373</v>
-      </c>
-      <c r="P44" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>365</v>
-      </c>
-      <c r="B45" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B45" t="s">
         <v>304</v>
       </c>
       <c r="C45">
@@ -4394,36 +3309,12 @@
       <c r="I45" t="s">
         <v>306</v>
       </c>
-      <c r="J45" t="s">
-        <v>373</v>
-      </c>
-      <c r="K45" t="s">
-        <v>373</v>
-      </c>
-      <c r="L45" t="s">
-        <v>373</v>
-      </c>
-      <c r="M45" t="s">
-        <v>373</v>
-      </c>
-      <c r="N45" t="s">
-        <v>373</v>
-      </c>
-      <c r="O45" t="s">
-        <v>373</v>
-      </c>
-      <c r="P45" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>364</v>
-      </c>
-      <c r="B46" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B46" t="s">
         <v>299</v>
       </c>
       <c r="C46">
@@ -4447,36 +3338,12 @@
       <c r="I46" t="s">
         <v>303</v>
       </c>
-      <c r="J46" t="s">
-        <v>373</v>
-      </c>
-      <c r="K46" t="s">
-        <v>373</v>
-      </c>
-      <c r="L46" t="s">
-        <v>373</v>
-      </c>
-      <c r="M46" t="s">
-        <v>373</v>
-      </c>
-      <c r="N46" t="s">
-        <v>373</v>
-      </c>
-      <c r="O46" t="s">
-        <v>373</v>
-      </c>
-      <c r="P46" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>333</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" t="s">
         <v>332</v>
       </c>
       <c r="C47">
@@ -4500,36 +3367,12 @@
       <c r="I47" t="s">
         <v>337</v>
       </c>
-      <c r="J47" t="s">
-        <v>373</v>
-      </c>
-      <c r="K47" t="s">
-        <v>373</v>
-      </c>
-      <c r="L47" t="s">
-        <v>373</v>
-      </c>
-      <c r="M47" t="s">
-        <v>373</v>
-      </c>
-      <c r="N47" t="s">
-        <v>373</v>
-      </c>
-      <c r="O47" t="s">
-        <v>373</v>
-      </c>
-      <c r="P47" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>339</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" t="s">
         <v>338</v>
       </c>
       <c r="C48">
@@ -4553,36 +3396,12 @@
       <c r="I48" t="s">
         <v>341</v>
       </c>
-      <c r="J48" t="s">
-        <v>373</v>
-      </c>
-      <c r="K48" t="s">
-        <v>373</v>
-      </c>
-      <c r="L48" t="s">
-        <v>373</v>
-      </c>
-      <c r="M48" t="s">
-        <v>373</v>
-      </c>
-      <c r="N48" t="s">
-        <v>373</v>
-      </c>
-      <c r="O48" t="s">
-        <v>373</v>
-      </c>
-      <c r="P48" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>105</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" t="s">
         <v>104</v>
       </c>
       <c r="C49">
@@ -4606,36 +3425,12 @@
       <c r="I49" t="s">
         <v>108</v>
       </c>
-      <c r="J49" t="s">
-        <v>373</v>
-      </c>
-      <c r="K49" t="s">
-        <v>373</v>
-      </c>
-      <c r="L49" t="s">
-        <v>373</v>
-      </c>
-      <c r="M49" t="s">
-        <v>373</v>
-      </c>
-      <c r="N49" t="s">
-        <v>373</v>
-      </c>
-      <c r="O49" t="s">
-        <v>373</v>
-      </c>
-      <c r="P49" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>294</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" t="s">
         <v>293</v>
       </c>
       <c r="C50">
@@ -4659,36 +3454,12 @@
       <c r="I50" t="s">
         <v>298</v>
       </c>
-      <c r="J50" t="s">
-        <v>373</v>
-      </c>
-      <c r="K50" t="s">
-        <v>373</v>
-      </c>
-      <c r="L50" t="s">
-        <v>373</v>
-      </c>
-      <c r="M50" t="s">
-        <v>373</v>
-      </c>
-      <c r="N50" t="s">
-        <v>373</v>
-      </c>
-      <c r="O50" t="s">
-        <v>373</v>
-      </c>
-      <c r="P50" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>184</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" t="s">
         <v>183</v>
       </c>
       <c r="C51">
@@ -4712,36 +3483,12 @@
       <c r="I51" t="s">
         <v>188</v>
       </c>
-      <c r="J51" t="s">
-        <v>373</v>
-      </c>
-      <c r="K51" t="s">
-        <v>373</v>
-      </c>
-      <c r="L51" t="s">
-        <v>373</v>
-      </c>
-      <c r="M51" t="s">
-        <v>373</v>
-      </c>
-      <c r="N51" t="s">
-        <v>373</v>
-      </c>
-      <c r="O51" t="s">
-        <v>373</v>
-      </c>
-      <c r="P51" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>177</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" t="s">
         <v>176</v>
       </c>
       <c r="C52">
@@ -4765,36 +3512,12 @@
       <c r="I52" t="s">
         <v>182</v>
       </c>
-      <c r="J52" t="s">
-        <v>373</v>
-      </c>
-      <c r="K52" t="s">
-        <v>373</v>
-      </c>
-      <c r="L52" t="s">
-        <v>373</v>
-      </c>
-      <c r="M52" t="s">
-        <v>373</v>
-      </c>
-      <c r="N52" t="s">
-        <v>373</v>
-      </c>
-      <c r="O52" t="s">
-        <v>373</v>
-      </c>
-      <c r="P52" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>288</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" t="s">
         <v>287</v>
       </c>
       <c r="C53">
@@ -4818,36 +3541,12 @@
       <c r="I53" t="s">
         <v>292</v>
       </c>
-      <c r="J53" t="s">
-        <v>373</v>
-      </c>
-      <c r="K53" t="s">
-        <v>373</v>
-      </c>
-      <c r="L53" t="s">
-        <v>373</v>
-      </c>
-      <c r="M53" t="s">
-        <v>373</v>
-      </c>
-      <c r="N53" t="s">
-        <v>373</v>
-      </c>
-      <c r="O53" t="s">
-        <v>373</v>
-      </c>
-      <c r="P53" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>282</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" t="s">
         <v>281</v>
       </c>
       <c r="C54">
@@ -4871,36 +3570,12 @@
       <c r="I54" t="s">
         <v>286</v>
       </c>
-      <c r="J54" t="s">
-        <v>373</v>
-      </c>
-      <c r="K54" t="s">
-        <v>373</v>
-      </c>
-      <c r="L54" t="s">
-        <v>373</v>
-      </c>
-      <c r="M54" t="s">
-        <v>373</v>
-      </c>
-      <c r="N54" t="s">
-        <v>373</v>
-      </c>
-      <c r="O54" t="s">
-        <v>373</v>
-      </c>
-      <c r="P54" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>170</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" t="s">
         <v>169</v>
       </c>
       <c r="C55">
@@ -4919,41 +3594,17 @@
         <v>173</v>
       </c>
       <c r="H55" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="I55" t="s">
         <v>175</v>
       </c>
-      <c r="J55" t="s">
-        <v>373</v>
-      </c>
-      <c r="K55" t="s">
-        <v>373</v>
-      </c>
-      <c r="L55" t="s">
-        <v>373</v>
-      </c>
-      <c r="M55" t="s">
-        <v>373</v>
-      </c>
-      <c r="N55" t="s">
-        <v>373</v>
-      </c>
-      <c r="O55" t="s">
-        <v>373</v>
-      </c>
-      <c r="P55" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>164</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" t="s">
         <v>163</v>
       </c>
       <c r="C56">
@@ -4977,36 +3628,12 @@
       <c r="I56" t="s">
         <v>168</v>
       </c>
-      <c r="J56" t="s">
-        <v>373</v>
-      </c>
-      <c r="K56" t="s">
-        <v>373</v>
-      </c>
-      <c r="L56" t="s">
-        <v>373</v>
-      </c>
-      <c r="M56" t="s">
-        <v>373</v>
-      </c>
-      <c r="N56" t="s">
-        <v>373</v>
-      </c>
-      <c r="O56" t="s">
-        <v>373</v>
-      </c>
-      <c r="P56" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>276</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" t="s">
         <v>275</v>
       </c>
       <c r="C57">
@@ -5030,36 +3657,12 @@
       <c r="I57" t="s">
         <v>280</v>
       </c>
-      <c r="J57" t="s">
-        <v>373</v>
-      </c>
-      <c r="K57" t="s">
-        <v>373</v>
-      </c>
-      <c r="L57" t="s">
-        <v>373</v>
-      </c>
-      <c r="M57" t="s">
-        <v>373</v>
-      </c>
-      <c r="N57" t="s">
-        <v>373</v>
-      </c>
-      <c r="O57" t="s">
-        <v>373</v>
-      </c>
-      <c r="P57" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>100</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" t="s">
         <v>99</v>
       </c>
       <c r="C58">
@@ -5083,36 +3686,12 @@
       <c r="I58" t="s">
         <v>103</v>
       </c>
-      <c r="J58" t="s">
-        <v>373</v>
-      </c>
-      <c r="K58" t="s">
-        <v>373</v>
-      </c>
-      <c r="L58" t="s">
-        <v>373</v>
-      </c>
-      <c r="M58" t="s">
-        <v>373</v>
-      </c>
-      <c r="N58" t="s">
-        <v>373</v>
-      </c>
-      <c r="O58" t="s">
-        <v>373</v>
-      </c>
-      <c r="P58" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>29</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" t="s">
         <v>28</v>
       </c>
       <c r="C59">
@@ -5136,36 +3715,12 @@
       <c r="I59" t="s">
         <v>33</v>
       </c>
-      <c r="J59" t="s">
-        <v>373</v>
-      </c>
-      <c r="K59" t="s">
-        <v>373</v>
-      </c>
-      <c r="L59" t="s">
-        <v>373</v>
-      </c>
-      <c r="M59" t="s">
-        <v>373</v>
-      </c>
-      <c r="N59" t="s">
-        <v>373</v>
-      </c>
-      <c r="O59" t="s">
-        <v>373</v>
-      </c>
-      <c r="P59" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>158</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" t="s">
         <v>157</v>
       </c>
       <c r="C60">
@@ -5189,36 +3744,12 @@
       <c r="I60" t="s">
         <v>162</v>
       </c>
-      <c r="J60" t="s">
-        <v>373</v>
-      </c>
-      <c r="K60" t="s">
-        <v>373</v>
-      </c>
-      <c r="L60" t="s">
-        <v>373</v>
-      </c>
-      <c r="M60" t="s">
-        <v>373</v>
-      </c>
-      <c r="N60" t="s">
-        <v>373</v>
-      </c>
-      <c r="O60" t="s">
-        <v>373</v>
-      </c>
-      <c r="P60" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>22</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" t="s">
         <v>21</v>
       </c>
       <c r="C61">
@@ -5242,36 +3773,12 @@
       <c r="I61" t="s">
         <v>27</v>
       </c>
-      <c r="J61" t="s">
-        <v>373</v>
-      </c>
-      <c r="K61" t="s">
-        <v>373</v>
-      </c>
-      <c r="L61" t="s">
-        <v>373</v>
-      </c>
-      <c r="M61" t="s">
-        <v>373</v>
-      </c>
-      <c r="N61" t="s">
-        <v>373</v>
-      </c>
-      <c r="O61" t="s">
-        <v>373</v>
-      </c>
-      <c r="P61" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>15</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" t="s">
         <v>14</v>
       </c>
       <c r="C62">
@@ -5295,36 +3802,12 @@
       <c r="I62" t="s">
         <v>20</v>
       </c>
-      <c r="J62" t="s">
-        <v>373</v>
-      </c>
-      <c r="K62" t="s">
-        <v>373</v>
-      </c>
-      <c r="L62" t="s">
-        <v>373</v>
-      </c>
-      <c r="M62" t="s">
-        <v>373</v>
-      </c>
-      <c r="N62" t="s">
-        <v>373</v>
-      </c>
-      <c r="O62" t="s">
-        <v>373</v>
-      </c>
-      <c r="P62" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>8</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" t="s">
         <v>7</v>
       </c>
       <c r="C63">
@@ -5348,36 +3831,12 @@
       <c r="I63" t="s">
         <v>13</v>
       </c>
-      <c r="J63" t="s">
-        <v>373</v>
-      </c>
-      <c r="K63" t="s">
-        <v>373</v>
-      </c>
-      <c r="L63" t="s">
-        <v>373</v>
-      </c>
-      <c r="M63" t="s">
-        <v>373</v>
-      </c>
-      <c r="N63" t="s">
-        <v>373</v>
-      </c>
-      <c r="O63" t="s">
-        <v>373</v>
-      </c>
-      <c r="P63" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>93</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" t="s">
         <v>92</v>
       </c>
       <c r="C64">
@@ -5401,36 +3860,12 @@
       <c r="I64" t="s">
         <v>98</v>
       </c>
-      <c r="J64" t="s">
-        <v>373</v>
-      </c>
-      <c r="K64" t="s">
-        <v>373</v>
-      </c>
-      <c r="L64" t="s">
-        <v>373</v>
-      </c>
-      <c r="M64" t="s">
-        <v>373</v>
-      </c>
-      <c r="N64" t="s">
-        <v>373</v>
-      </c>
-      <c r="O64" t="s">
-        <v>373</v>
-      </c>
-      <c r="P64" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>152</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" t="s">
         <v>151</v>
       </c>
       <c r="C65">
@@ -5454,38 +3889,14 @@
       <c r="I65" t="s">
         <v>156</v>
       </c>
-      <c r="J65" t="s">
-        <v>373</v>
-      </c>
-      <c r="K65" t="s">
-        <v>373</v>
-      </c>
-      <c r="L65" t="s">
-        <v>373</v>
-      </c>
-      <c r="M65" t="s">
-        <v>373</v>
-      </c>
-      <c r="N65" t="s">
-        <v>373</v>
-      </c>
-      <c r="O65" t="s">
-        <v>373</v>
-      </c>
-      <c r="P65" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H79" t="s">
         <v>351</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q80">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I80">
     <sortCondition ref="D1:D80"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
